--- a/Excel Learning/Practice.xlsx
+++ b/Excel Learning/Practice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mascoknit-my.sharepoint.com/personal/shipon_mis_mascoknit_com/Documents/Shipon/Self Learning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mascoknit-my.sharepoint.com/personal/shipon_mis_mascoknit_com/Documents/Shipon/Github/Data-Analysis/Excel Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1176" documentId="11_F25DC773A252ABDACC10481EE91950105ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F72BF2B-D2E5-4CD9-BFD7-2012E2751D7F}"/>
+  <xr:revisionPtr revIDLastSave="1326" documentId="11_F25DC773A252ABDACC10481EE91950105ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F52174D8-C2FF-446F-9CFB-49EB3661DB1A}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,10 @@
     <sheet name="Nmae Range and formulas" sheetId="4" r:id="rId4"/>
     <sheet name="Basic Formulas" sheetId="5" r:id="rId5"/>
     <sheet name="V-Lookup" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="HLookup" sheetId="7" r:id="rId7"/>
+    <sheet name="Lookup" sheetId="8" r:id="rId8"/>
+    <sheet name="Index Function" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="logical_function">Table2[#All]</definedName>
@@ -134,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="275">
   <si>
     <t>Monday</t>
   </si>
@@ -857,6 +860,108 @@
   </si>
   <si>
     <t>Click to update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masco Cottons Ltd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mascotex Limited </t>
+  </si>
+  <si>
+    <t>Vlookuop with trims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasniah Fabrics Ltd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mascotex  Limited </t>
+  </si>
+  <si>
+    <t>Masco Cottons  Ltd.</t>
+  </si>
+  <si>
+    <t>Hlookup</t>
+  </si>
+  <si>
+    <t>H = horizontal</t>
+  </si>
+  <si>
+    <t>Top Products</t>
+  </si>
+  <si>
+    <t>Product Code</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Cosmetics</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>1000-165-B100</t>
+  </si>
+  <si>
+    <t>1000-165-B101</t>
+  </si>
+  <si>
+    <t>1000-165-B102</t>
+  </si>
+  <si>
+    <t>1000-165-B103</t>
+  </si>
+  <si>
+    <t>1000-165-B104</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Vlookup with exact match</t>
+  </si>
+  <si>
+    <t>Perfumes</t>
+  </si>
+  <si>
+    <t>Clothes</t>
+  </si>
+  <si>
+    <t>1000-165-B105</t>
+  </si>
+  <si>
+    <t>1000-165-B106</t>
+  </si>
+  <si>
+    <t>Lookup value should be unique in the column</t>
+  </si>
+  <si>
+    <t>Values can be find from left to right</t>
+  </si>
+  <si>
+    <t>the lookup value should be belong to the first column of the table array</t>
+  </si>
+  <si>
+    <t>Lookup works for vertical as well as horizontal</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>Show full record</t>
   </si>
 </sst>
 </file>
@@ -2899,11 +3004,11 @@
       </c>
       <c r="G36" s="19">
         <f ca="1">IF(F28&lt;G28,TODAY(),TODAY()+10)</f>
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="H36" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="K36" t="s">
         <v>57</v>
@@ -3046,6 +3151,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA652863-6D70-4C7F-82D0-215B277BF75D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B4A5BB-AE63-45DD-9AD2-C817E3137CF9}">
   <dimension ref="A1:E9"/>
@@ -3232,7 +3349,7 @@
       </c>
       <c r="B2" s="21">
         <f ca="1">TODAY()</f>
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="L2" s="20"/>
       <c r="M2" s="22">
@@ -3245,7 +3362,7 @@
       </c>
       <c r="B3" s="20">
         <f ca="1">NOW()</f>
-        <v>45677.541425000003</v>
+        <v>45678.521544675925</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -3254,7 +3371,7 @@
       </c>
       <c r="B4">
         <f ca="1">DAY(B2)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -3282,7 +3399,7 @@
       </c>
       <c r="B7" s="19">
         <f ca="1">DATE(B6,B5,B4)</f>
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>106</v>
@@ -3325,7 +3442,7 @@
       </c>
       <c r="B9" s="19">
         <f ca="1">B2+C9</f>
-        <v>45682</v>
+        <v>45683</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -3358,7 +3475,7 @@
       </c>
       <c r="B10" s="19">
         <f ca="1">B2-C10</f>
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -3394,7 +3511,7 @@
       </c>
       <c r="B12" s="19">
         <f ca="1">EDATE(B2,C12)</f>
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -3406,7 +3523,7 @@
       </c>
       <c r="B13" s="19">
         <f ca="1">EDATE(B2,C13)</f>
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="C13">
         <v>-5</v>
@@ -3418,7 +3535,7 @@
       </c>
       <c r="B15" s="19">
         <f ca="1">EDATE(B2,D15)</f>
-        <v>47503</v>
+        <v>47504</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -3434,7 +3551,7 @@
       </c>
       <c r="B16" s="19">
         <f ca="1">EDATE(B2,D16)</f>
-        <v>43850</v>
+        <v>43851</v>
       </c>
       <c r="C16">
         <v>-5</v>
@@ -4162,16 +4279,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C395FF69-531C-4C9A-AFCD-935ED6E76D92}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
@@ -4263,7 +4380,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B5" s="28">
         <v>27956.333333333299</v>
@@ -4283,7 +4400,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="B6" s="5">
         <v>35165.833333333299</v>
@@ -4303,7 +4420,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="B7" s="28">
         <v>42375.333333333299</v>
@@ -4326,7 +4443,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="B8" s="28">
         <v>49584.833333333198</v>
@@ -4345,7 +4462,7 @@
       </c>
       <c r="H8" s="5" t="str" cm="1">
         <f t="array" ref="H8">INDEX(A2:A9,I8)</f>
-        <v>Mascotex Limited</v>
+        <v xml:space="preserve">Mascotex Limited </v>
       </c>
       <c r="I8" s="5">
         <v>4</v>
@@ -4353,7 +4470,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B9" s="5">
         <v>56794.333333333198</v>
@@ -4492,6 +4609,280 @@
       <c r="F17" s="5">
         <f>VLOOKUP($A$17,$A$1:$F$4,MATCH(F15,$A$1:$F$1,0),0)</f>
         <v>1010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="5" t="e">
+        <f>VLOOKUP(A20,$A$4:$B$9,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C20" s="5" t="str" cm="1">
+        <f t="array" ref="C20">VLOOKUP(A20,TRIM($A$4:$B$9),2,0)</f>
+        <v>35165.8333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="5" t="e">
+        <f>VLOOKUP(A21,$A$4:$B$9,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C21" s="5" t="str" cm="1">
+        <f t="array" ref="C21">VLOOKUP(A21,TRIM($A$4:$B$9),2,0)</f>
+        <v>27956.3333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" s="5" t="e" cm="1">
+        <f t="array" ref="B22">VLOOKUP(A22,TRIM($A$4:$B$9),2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C22" s="5" t="str" cm="1">
+        <f t="array" ref="C22">VLOOKUP(TRIM(A22),TRIM($A$4:$B$9),2,0)</f>
+        <v>27956.3333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="5">
+        <v>25</v>
+      </c>
+      <c r="D30" s="5">
+        <v>26.95</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C31" s="5">
+        <v>20</v>
+      </c>
+      <c r="D31" s="5">
+        <v>28.95</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" s="5">
+        <v>35</v>
+      </c>
+      <c r="D32" s="5">
+        <v>30.95</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" s="5">
+        <v>20</v>
+      </c>
+      <c r="D33" s="5">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="5">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="5">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" s="5">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5">
+        <v>38.950000000000003</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>249</v>
+      </c>
+      <c r="B38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" t="s">
+        <v>233</v>
+      </c>
+      <c r="D38" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39">
+        <f>VLOOKUP(A39,$A$30:$D$36,4,0)</f>
+        <v>34.950000000000003</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <f>B39*C39</f>
+        <v>139.80000000000001</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" s="5" t="str">
+        <f>VLOOKUP($A44,$A$29:$D$36,MATCH(B43,$A$29:$D$29,0),0)</f>
+        <v>1000-165-B101</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" ref="C44:D44" si="1">VLOOKUP($A44,$A$29:$D$36,MATCH(C43,$A$29:$D$29,0),0)</f>
+        <v>20</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="1"/>
+        <v>28.95</v>
       </c>
     </row>
   </sheetData>
@@ -4507,9 +4898,355 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87549426-60B2-45AB-B7E9-D2B69C8DB3CD}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7">
+        <v>26.95</v>
+      </c>
+      <c r="C7">
+        <v>28.95</v>
+      </c>
+      <c r="D7">
+        <v>30.95</v>
+      </c>
+      <c r="E7">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="F7">
+        <v>34.950000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10">
+        <f>HLOOKUP(A10,$A$4:$F$7,4,0)</f>
+        <v>26.95</v>
+      </c>
+      <c r="C10">
+        <f>HLOOKUP($A10,$A$4:$F$7,3,0)</f>
+        <v>25</v>
+      </c>
+      <c r="D10" t="str">
+        <f>HLOOKUP($A10,$A$4:$F$7,2,0)</f>
+        <v>1000-165-B100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:B12" si="0">HLOOKUP(A11,$A$4:$F$7,4,0)</f>
+        <v>32.950000000000003</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:D12" si="1">HLOOKUP($A11,$A$4:$F$7,3,0)</f>
+        <v>20</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D12" si="2">HLOOKUP($A11,$A$4:$F$7,2,0)</f>
+        <v>1000-165-B103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>34.950000000000003</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>1000-165-B104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCDAACD-1366-40A6-A9C3-A6656CDFEC7E}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <f>LOOKUP($D4,$A$4:$B$8,$B$4:$B$8)</f>
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <f>LOOKUP($D4,$A$4:$B$8)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>500</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>7000</v>
+      </c>
+      <c r="E5">
+        <f>LOOKUP($D5,$A$4:$B$8,$B$4:$B$8)</f>
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <f>LOOKUP($D5,$A$4:$B$8)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6000</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>25000</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>6000</v>
+      </c>
+      <c r="F15">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1000</v>
+      </c>
+      <c r="B19">
+        <f ca="1">LOOKUP($A19,$B$15:$F$16,$B$16:$F$16)</f>
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <f>LOOKUP($A19,$B$15:$F$16)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7000</v>
+      </c>
+      <c r="B20">
+        <f ca="1">LOOKUP($A20,$B$15:$F$16,$B$16:$F$16)</f>
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <f>LOOKUP($A20,$B$15:$F$16)</f>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCAA424-8077-4DDF-999A-206A137CAC56}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
